--- a/indextrends/overall index.xlsx
+++ b/indextrends/overall index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="19760" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="19200" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>how to encrypt 
 whatsapp messages (non-scaled)</t>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>web anonimity index trends</t>
+  </si>
+  <si>
+    <t>clear</t>
   </si>
 </sst>
 </file>
@@ -10991,7 +10994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11005,7 +11008,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
@@ -25329,7 +25332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/indextrends/overall index.xlsx
+++ b/indextrends/overall index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="19200" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="-38380" yWindow="480" windowWidth="38400" windowHeight="19780" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>how to encrypt 
 whatsapp messages (non-scaled)</t>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>web anonimity index trends</t>
-  </si>
-  <si>
-    <t>clear</t>
   </si>
 </sst>
 </file>
@@ -865,11 +862,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1692948704"/>
-        <c:axId val="-1692701232"/>
+        <c:axId val="1502781504"/>
+        <c:axId val="1502783824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1692948704"/>
+        <c:axId val="1502781504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,14 +923,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1692701232"/>
+        <c:crossAx val="1502783824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1692701232"/>
+        <c:axId val="1502783824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1692948704"/>
+        <c:crossAx val="1502781504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1575,11 +1572,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1693473008"/>
-        <c:axId val="-1691036816"/>
+        <c:axId val="1502816256"/>
+        <c:axId val="1502819008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1693473008"/>
+        <c:axId val="1502816256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,14 +1633,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1691036816"/>
+        <c:crossAx val="1502819008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1691036816"/>
+        <c:axId val="1502819008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1693473008"/>
+        <c:crossAx val="1502816256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2285,11 +2282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1689144032"/>
-        <c:axId val="-1689141712"/>
+        <c:axId val="1502849040"/>
+        <c:axId val="1502851792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1689144032"/>
+        <c:axId val="1502849040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2346,14 +2343,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1689141712"/>
+        <c:crossAx val="1502851792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1689141712"/>
+        <c:axId val="1502851792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,7 +2400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1689144032"/>
+        <c:crossAx val="1502849040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2995,11 +2992,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1690405536"/>
-        <c:axId val="-1690857504"/>
+        <c:axId val="1501811328"/>
+        <c:axId val="1501813648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1690405536"/>
+        <c:axId val="1501811328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,14 +3053,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1690857504"/>
+        <c:crossAx val="1501813648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1690857504"/>
+        <c:axId val="1501813648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,7 +3110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1690405536"/>
+        <c:crossAx val="1501811328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3705,11 +3702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1659461024"/>
-        <c:axId val="-1686989232"/>
+        <c:axId val="1433090720"/>
+        <c:axId val="1433093472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1659461024"/>
+        <c:axId val="1433090720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3766,14 +3763,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686989232"/>
+        <c:crossAx val="1433093472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1686989232"/>
+        <c:axId val="1433093472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,7 +3820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1659461024"/>
+        <c:crossAx val="1433090720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4415,11 +4412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1658531952"/>
-        <c:axId val="-1658301472"/>
+        <c:axId val="1501853760"/>
+        <c:axId val="1501856512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1658531952"/>
+        <c:axId val="1501853760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4476,14 +4473,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1658301472"/>
+        <c:crossAx val="1501856512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1658301472"/>
+        <c:axId val="1501856512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4533,7 +4530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1658531952"/>
+        <c:crossAx val="1501853760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5125,11 +5122,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1653993872"/>
-        <c:axId val="-1653603216"/>
+        <c:axId val="1502880352"/>
+        <c:axId val="1502883104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1653993872"/>
+        <c:axId val="1502880352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5186,14 +5183,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1653603216"/>
+        <c:crossAx val="1502883104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1653603216"/>
+        <c:axId val="1502883104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5243,7 +5240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1653993872"/>
+        <c:crossAx val="1502880352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5835,11 +5832,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1658870576"/>
-        <c:axId val="-1658839264"/>
+        <c:axId val="1501868160"/>
+        <c:axId val="1501870912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1658870576"/>
+        <c:axId val="1501868160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5896,14 +5893,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1658839264"/>
+        <c:crossAx val="1501870912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1658839264"/>
+        <c:axId val="1501870912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5953,7 +5950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1658870576"/>
+        <c:crossAx val="1501868160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10994,7 +10991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11008,7 +11007,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
@@ -13522,6 +13521,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -13531,7 +13531,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15401,7 +15401,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16527,7 +16527,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21597,7 +21597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23464,7 +23466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCellId="1" sqref="C1:C1048576 A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -25332,7 +25334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
